--- a/Code/Results/Cases/Case_5_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2458528759674</v>
+        <v>13.65895741983883</v>
       </c>
       <c r="C2">
-        <v>19.65679783936471</v>
+        <v>11.20434217402632</v>
       </c>
       <c r="D2">
-        <v>4.349752032392269</v>
+        <v>5.586399925725549</v>
       </c>
       <c r="E2">
-        <v>10.7519929591714</v>
+        <v>10.32407531646829</v>
       </c>
       <c r="F2">
-        <v>39.55806285492932</v>
+        <v>33.62818623086538</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>24.98728089548709</v>
+        <v>25.1487517236242</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00160569425097</v>
+        <v>15.77829257748981</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74430778138235</v>
+        <v>13.15024845339818</v>
       </c>
       <c r="C3">
-        <v>18.23135996649459</v>
+        <v>10.59599414025415</v>
       </c>
       <c r="D3">
-        <v>4.351184597293759</v>
+        <v>5.591683893182339</v>
       </c>
       <c r="E3">
-        <v>10.16114676093361</v>
+        <v>10.20885581676484</v>
       </c>
       <c r="F3">
-        <v>37.32414659280705</v>
+        <v>33.05243794692855</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>23.96147998601565</v>
+        <v>24.95110829641702</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.66385076543624</v>
+        <v>15.52038966883085</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77654075796265</v>
+        <v>12.83248428438944</v>
       </c>
       <c r="C4">
-        <v>17.3148324984768</v>
+        <v>10.20746421422599</v>
       </c>
       <c r="D4">
-        <v>4.355577189453126</v>
+        <v>5.595648450364217</v>
       </c>
       <c r="E4">
-        <v>9.795417379959792</v>
+        <v>10.14062121320605</v>
       </c>
       <c r="F4">
-        <v>35.93372189077203</v>
+        <v>32.70431194916934</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>23.33901860723272</v>
+        <v>24.83528284550421</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.80432731217249</v>
+        <v>15.36518962880925</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37041684540007</v>
+        <v>12.70186957633158</v>
       </c>
       <c r="C5">
-        <v>16.93070140924233</v>
+        <v>10.04556421834081</v>
       </c>
       <c r="D5">
-        <v>4.35817230965826</v>
+        <v>5.597443460257031</v>
       </c>
       <c r="E5">
-        <v>9.645709369845383</v>
+        <v>10.11347197480452</v>
       </c>
       <c r="F5">
-        <v>35.36270922091342</v>
+        <v>32.56397969273607</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>23.08730059157007</v>
+        <v>24.78950267544452</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.44425420169901</v>
+        <v>15.30282391434681</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30226411946719</v>
+        <v>12.68012065065997</v>
       </c>
       <c r="C6">
-        <v>16.86626716223861</v>
+        <v>10.01847178260563</v>
       </c>
       <c r="D6">
-        <v>4.358649693597876</v>
+        <v>5.597752307453383</v>
       </c>
       <c r="E6">
-        <v>9.620812832536238</v>
+        <v>10.10900425618842</v>
       </c>
       <c r="F6">
-        <v>35.26763936592687</v>
+        <v>32.54077528743635</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>23.045623350154</v>
+        <v>24.78198745753745</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.38386578876344</v>
+        <v>15.29252375947478</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77111150146424</v>
+        <v>12.83072698592316</v>
       </c>
       <c r="C7">
-        <v>17.30969536825853</v>
+        <v>10.20529493959319</v>
       </c>
       <c r="D7">
-        <v>4.355609026826066</v>
+        <v>5.59567193428616</v>
       </c>
       <c r="E7">
-        <v>9.793400956365742</v>
+        <v>10.14025237663641</v>
       </c>
       <c r="F7">
-        <v>35.92603830809698</v>
+        <v>32.70241294423958</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>23.33561585645866</v>
+        <v>24.83465965357324</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.79951123773269</v>
+        <v>15.36434486837605</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73748352111686</v>
+        <v>13.48481472922668</v>
       </c>
       <c r="C8">
-        <v>19.17372056726708</v>
+        <v>10.99780735550261</v>
       </c>
       <c r="D8">
-        <v>4.349467571425725</v>
+        <v>5.588071362942124</v>
       </c>
       <c r="E8">
-        <v>10.5489104919718</v>
+        <v>10.28384239341803</v>
       </c>
       <c r="F8">
-        <v>38.79185430001156</v>
+        <v>33.42865767258588</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>24.63208846795477</v>
+        <v>25.07947543259234</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54812299139029</v>
+        <v>15.6887655334073</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24152748577694</v>
+        <v>14.71514471797255</v>
       </c>
       <c r="C9">
-        <v>22.51396197911564</v>
+        <v>12.42573084990092</v>
       </c>
       <c r="D9">
-        <v>4.369213534696413</v>
+        <v>5.578955306243712</v>
       </c>
       <c r="E9">
-        <v>12.00628045330314</v>
+        <v>10.58414530038598</v>
       </c>
       <c r="F9">
-        <v>44.25676927133708</v>
+        <v>34.88767319538395</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>27.23211308521705</v>
+        <v>25.60199335889899</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.68581518018186</v>
+        <v>16.34612047903191</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61932470129543</v>
+        <v>15.57613804973021</v>
       </c>
       <c r="C10">
-        <v>24.79575871062826</v>
+        <v>13.39029481927165</v>
       </c>
       <c r="D10">
-        <v>4.409221368675629</v>
+        <v>5.575887657324217</v>
       </c>
       <c r="E10">
-        <v>13.0648567950003</v>
+        <v>10.81450480607961</v>
       </c>
       <c r="F10">
-        <v>48.18208423104511</v>
+        <v>35.97033394873463</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>29.18129678120883</v>
+        <v>26.00966560446784</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.83147500771951</v>
+        <v>16.83682367501086</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.66302395934282</v>
+        <v>15.95658928743519</v>
       </c>
       <c r="C11">
-        <v>25.8015935234334</v>
+        <v>13.8096060162826</v>
       </c>
       <c r="D11">
-        <v>4.434544699302414</v>
+        <v>5.57530151849059</v>
       </c>
       <c r="E11">
-        <v>13.61951777300199</v>
+        <v>10.92103699651717</v>
       </c>
       <c r="F11">
-        <v>49.95720531126663</v>
+        <v>36.46301176796022</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>30.07901976564076</v>
+        <v>26.19979741469491</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.77771927339385</v>
+        <v>17.06066679499266</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05324194050317</v>
+        <v>16.09890918209374</v>
       </c>
       <c r="C12">
-        <v>26.17836313785368</v>
+        <v>13.96551694292151</v>
       </c>
       <c r="D12">
-        <v>4.445312546164777</v>
+        <v>5.575197635071389</v>
       </c>
       <c r="E12">
-        <v>13.83079963008238</v>
+        <v>10.96159599427764</v>
       </c>
       <c r="F12">
-        <v>50.66815410450266</v>
+        <v>36.64942479311838</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>30.42089682170243</v>
+        <v>26.27242406880281</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.13222236439395</v>
+        <v>17.14543301364182</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96941630621534</v>
+        <v>16.06833779413222</v>
       </c>
       <c r="C13">
-        <v>26.09739326435917</v>
+        <v>13.9320675209049</v>
       </c>
       <c r="D13">
-        <v>4.44293840056566</v>
+        <v>5.57521473017797</v>
       </c>
       <c r="E13">
-        <v>13.78535713402064</v>
+        <v>10.95285173363904</v>
       </c>
       <c r="F13">
-        <v>50.51517678717282</v>
+        <v>36.6092869962558</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>30.34717487563536</v>
+        <v>26.25675542708138</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.05603531923849</v>
+        <v>17.12717837611478</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.69522496158485</v>
+        <v>15.96833379208794</v>
       </c>
       <c r="C14">
-        <v>25.83266992616047</v>
+        <v>13.82249084809292</v>
       </c>
       <c r="D14">
-        <v>4.435405999389983</v>
+        <v>5.575290595958883</v>
       </c>
       <c r="E14">
-        <v>13.63692803404827</v>
+        <v>10.92436963692558</v>
       </c>
       <c r="F14">
-        <v>50.01575918171797</v>
+        <v>36.47835214910692</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>30.10710512560591</v>
+        <v>26.20576013297143</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80695802894943</v>
+        <v>17.06764101891049</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52663722361624</v>
+        <v>15.90684699436941</v>
       </c>
       <c r="C15">
-        <v>25.66999935582009</v>
+        <v>13.75499590023682</v>
       </c>
       <c r="D15">
-        <v>4.430950592745324</v>
+        <v>5.57535249246784</v>
       </c>
       <c r="E15">
-        <v>13.54582623626485</v>
+        <v>10.90695089177018</v>
       </c>
       <c r="F15">
-        <v>49.72005140322958</v>
+        <v>36.39812563306401</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>29.96031898361944</v>
+        <v>26.17460444790144</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65390889494956</v>
+        <v>17.03117034529861</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55038951209167</v>
+        <v>15.55103693038727</v>
       </c>
       <c r="C16">
-        <v>24.72941935909984</v>
+        <v>13.36249341152681</v>
       </c>
       <c r="D16">
-        <v>4.407722473013273</v>
+        <v>5.575942394237688</v>
       </c>
       <c r="E16">
-        <v>13.03344605269895</v>
+        <v>10.80757490680978</v>
       </c>
       <c r="F16">
-        <v>48.06610252524158</v>
+        <v>35.93812437175385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>29.12287692450435</v>
+        <v>25.9973303909397</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.76907401179652</v>
+        <v>16.8221999299392</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.94206845856084</v>
+        <v>15.32978350985083</v>
       </c>
       <c r="C17">
-        <v>24.14450238533557</v>
+        <v>13.11666140962255</v>
       </c>
       <c r="D17">
-        <v>4.395400514988316</v>
+        <v>5.576512785499124</v>
       </c>
       <c r="E17">
-        <v>12.75808534147531</v>
+        <v>10.74703351810176</v>
       </c>
       <c r="F17">
-        <v>47.04808650855395</v>
+        <v>35.65584356837429</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>28.61216417255875</v>
+        <v>25.8897454793324</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.21892861716066</v>
+        <v>16.69409895210831</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58857343877546</v>
+        <v>15.20147533831041</v>
       </c>
       <c r="C18">
-        <v>23.80501145052303</v>
+        <v>12.97343566591451</v>
       </c>
       <c r="D18">
-        <v>4.388973395253943</v>
+        <v>5.576916939895494</v>
       </c>
       <c r="E18">
-        <v>12.59959913101374</v>
+        <v>10.7123775112572</v>
       </c>
       <c r="F18">
-        <v>46.4611167350774</v>
+        <v>35.49350939650619</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>28.31942646938794</v>
+        <v>25.82830875601736</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.89965993310329</v>
+        <v>16.62048205523944</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.4682542655861</v>
+        <v>15.15785663744838</v>
       </c>
       <c r="C19">
-        <v>23.68952551984804</v>
+        <v>12.92463011156066</v>
       </c>
       <c r="D19">
-        <v>4.386906301743081</v>
+        <v>5.577066794535977</v>
       </c>
       <c r="E19">
-        <v>12.54591469587796</v>
+        <v>10.70067305321825</v>
       </c>
       <c r="F19">
-        <v>46.26211650259067</v>
+        <v>35.43855586873926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>28.22047564273488</v>
+        <v>25.80758481858038</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.79106020430387</v>
+        <v>16.59557023982363</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00719529959857</v>
+        <v>15.3534459245305</v>
       </c>
       <c r="C20">
-        <v>24.20708129261294</v>
+        <v>13.14302058600214</v>
       </c>
       <c r="D20">
-        <v>4.396642835979344</v>
+        <v>5.576444180007798</v>
       </c>
       <c r="E20">
-        <v>12.78740757299219</v>
+        <v>10.75346132932984</v>
       </c>
       <c r="F20">
-        <v>47.15660048424321</v>
+        <v>35.6858914301018</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>28.66642371433548</v>
+        <v>25.90115252174455</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.27778325335411</v>
+        <v>16.7077296014013</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77589357796746</v>
+        <v>15.99775584501314</v>
       </c>
       <c r="C21">
-        <v>25.910532907926</v>
+        <v>13.8547546556181</v>
       </c>
       <c r="D21">
-        <v>4.437585130498974</v>
+        <v>5.575265094483712</v>
       </c>
       <c r="E21">
-        <v>13.68056306238647</v>
+        <v>10.93272987549725</v>
       </c>
       <c r="F21">
-        <v>50.1625362837049</v>
+        <v>36.51681643518493</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>30.17756372173477</v>
+        <v>26.22072201295228</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.88021758631852</v>
+        <v>17.08512921973639</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.90291148065304</v>
+        <v>16.40860581160187</v>
       </c>
       <c r="C22">
-        <v>27.00013065985608</v>
+        <v>14.30314344750959</v>
       </c>
       <c r="D22">
-        <v>4.471300033396878</v>
+        <v>5.575183488530898</v>
       </c>
       <c r="E22">
-        <v>14.29314484167859</v>
+        <v>11.05114521370681</v>
       </c>
       <c r="F22">
-        <v>52.22645302647946</v>
+        <v>37.05890226934671</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>31.17667818782193</v>
+        <v>26.43321700941589</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.90551764716461</v>
+        <v>17.33175323279506</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30387933880063</v>
+        <v>16.19030508495133</v>
       </c>
       <c r="C23">
-        <v>26.42057122340589</v>
+        <v>14.06538474865279</v>
       </c>
       <c r="D23">
-        <v>4.452612475035525</v>
+        <v>5.575163448426233</v>
       </c>
       <c r="E23">
-        <v>13.96685413153641</v>
+        <v>10.98784088834989</v>
       </c>
       <c r="F23">
-        <v>51.12637344058152</v>
+        <v>36.76972679851851</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>30.64223266022594</v>
+        <v>26.31948679637942</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.3601309045202</v>
+        <v>17.20015602917018</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97776320924343</v>
+        <v>15.34275158330505</v>
       </c>
       <c r="C24">
-        <v>24.17879941776792</v>
+        <v>13.13110949498592</v>
       </c>
       <c r="D24">
-        <v>4.396079147832797</v>
+        <v>5.576474959242767</v>
       </c>
       <c r="E24">
-        <v>12.77415156096628</v>
+        <v>10.75055484604017</v>
       </c>
       <c r="F24">
-        <v>47.1075466529254</v>
+        <v>35.67230692520226</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>28.6418902653568</v>
+        <v>25.89599410097901</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.25118439731011</v>
+        <v>16.70156708455365</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32954617598081</v>
+        <v>14.38913099362209</v>
       </c>
       <c r="C25">
-        <v>21.64217108824344</v>
+        <v>12.05383093295343</v>
       </c>
       <c r="D25">
-        <v>4.359879872468366</v>
+        <v>5.580791205327251</v>
       </c>
       <c r="E25">
-        <v>11.61453263523828</v>
+        <v>10.50107128639376</v>
       </c>
       <c r="F25">
-        <v>42.79510356359792</v>
+        <v>34.49033375985833</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>26.52244502635295</v>
+        <v>25.45630182426911</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.86646043311248</v>
+        <v>16.16655825787232</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65895741983883</v>
+        <v>21.2458528759674</v>
       </c>
       <c r="C2">
-        <v>11.20434217402632</v>
+        <v>19.65679783936461</v>
       </c>
       <c r="D2">
-        <v>5.586399925725549</v>
+        <v>4.349752032392275</v>
       </c>
       <c r="E2">
-        <v>10.32407531646829</v>
+        <v>10.75199295917141</v>
       </c>
       <c r="F2">
-        <v>33.62818623086538</v>
+        <v>39.55806285492933</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>25.1487517236242</v>
+        <v>24.98728089548706</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.77829257748981</v>
+        <v>19.001605694251</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15024845339818</v>
+        <v>19.74430778138213</v>
       </c>
       <c r="C3">
-        <v>10.59599414025415</v>
+        <v>18.23135996649474</v>
       </c>
       <c r="D3">
-        <v>5.591683893182339</v>
+        <v>4.351184597293843</v>
       </c>
       <c r="E3">
-        <v>10.20885581676484</v>
+        <v>10.16114676093356</v>
       </c>
       <c r="F3">
-        <v>33.05243794692855</v>
+        <v>37.32414659280712</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.95110829641702</v>
+        <v>23.96147998601581</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.52038966883085</v>
+        <v>17.66385076543624</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83248428438944</v>
+        <v>18.77654075796267</v>
       </c>
       <c r="C4">
-        <v>10.20746421422599</v>
+        <v>17.31483249847689</v>
       </c>
       <c r="D4">
-        <v>5.595648450364217</v>
+        <v>4.355577189453172</v>
       </c>
       <c r="E4">
-        <v>10.14062121320605</v>
+        <v>9.795417379959844</v>
       </c>
       <c r="F4">
-        <v>32.70431194916934</v>
+        <v>35.93372189077205</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.83528284550421</v>
+        <v>23.33901860723273</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.36518962880925</v>
+        <v>16.8043273121725</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.70186957633158</v>
+        <v>18.37041684540017</v>
       </c>
       <c r="C5">
-        <v>10.04556421834081</v>
+        <v>16.93070140924246</v>
       </c>
       <c r="D5">
-        <v>5.597443460257031</v>
+        <v>4.358172309658164</v>
       </c>
       <c r="E5">
-        <v>10.11347197480452</v>
+        <v>9.645709369845441</v>
       </c>
       <c r="F5">
-        <v>32.56397969273607</v>
+        <v>35.36270922091347</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.78950267544452</v>
+        <v>23.08730059157009</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.30282391434681</v>
+        <v>16.44425420169903</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68012065065997</v>
+        <v>18.30226411946715</v>
       </c>
       <c r="C6">
-        <v>10.01847178260563</v>
+        <v>16.86626716223866</v>
       </c>
       <c r="D6">
-        <v>5.597752307453383</v>
+        <v>4.358649693597876</v>
       </c>
       <c r="E6">
-        <v>10.10900425618842</v>
+        <v>9.620812832536222</v>
       </c>
       <c r="F6">
-        <v>32.54077528743635</v>
+        <v>35.26763936592685</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.78198745753745</v>
+        <v>23.04562335015406</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.29252375947478</v>
+        <v>16.38386578876346</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.83072698592316</v>
+        <v>18.77111150146418</v>
       </c>
       <c r="C7">
-        <v>10.20529493959319</v>
+        <v>17.30969536825848</v>
       </c>
       <c r="D7">
-        <v>5.59567193428616</v>
+        <v>4.355609026826087</v>
       </c>
       <c r="E7">
-        <v>10.14025237663641</v>
+        <v>9.793400956365689</v>
       </c>
       <c r="F7">
-        <v>32.70241294423958</v>
+        <v>35.92603830809718</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.83465965357324</v>
+        <v>23.3356158564588</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.36434486837605</v>
+        <v>16.79951123773272</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.48481472922668</v>
+        <v>20.73748352111697</v>
       </c>
       <c r="C8">
-        <v>10.99780735550261</v>
+        <v>19.17372056726706</v>
       </c>
       <c r="D8">
-        <v>5.588071362942124</v>
+        <v>4.349467571425633</v>
       </c>
       <c r="E8">
-        <v>10.28384239341803</v>
+        <v>10.54891049197186</v>
       </c>
       <c r="F8">
-        <v>33.42865767258588</v>
+        <v>38.79185430001161</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>25.07947543259234</v>
+        <v>24.63208846795476</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.6887655334073</v>
+        <v>18.54812299139038</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.71514471797255</v>
+        <v>24.24152748577692</v>
       </c>
       <c r="C9">
-        <v>12.42573084990092</v>
+        <v>22.51396197911572</v>
       </c>
       <c r="D9">
-        <v>5.578955306243712</v>
+        <v>4.369213534696413</v>
       </c>
       <c r="E9">
-        <v>10.58414530038598</v>
+        <v>12.00628045330316</v>
       </c>
       <c r="F9">
-        <v>34.88767319538395</v>
+        <v>44.25676927133713</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>25.60199335889899</v>
+        <v>27.23211308521705</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.34612047903191</v>
+        <v>21.68581518018188</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57613804973021</v>
+        <v>26.61932470129542</v>
       </c>
       <c r="C10">
-        <v>13.39029481927165</v>
+        <v>24.79575871062841</v>
       </c>
       <c r="D10">
-        <v>5.575887657324217</v>
+        <v>4.409221368675761</v>
       </c>
       <c r="E10">
-        <v>10.81450480607961</v>
+        <v>13.06485679500035</v>
       </c>
       <c r="F10">
-        <v>35.97033394873463</v>
+        <v>48.18208423104524</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>26.00966560446784</v>
+        <v>29.18129678120889</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.83682367501086</v>
+        <v>23.83147500771957</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.95658928743519</v>
+        <v>27.66302395934285</v>
       </c>
       <c r="C11">
-        <v>13.8096060162826</v>
+        <v>25.80159352343353</v>
       </c>
       <c r="D11">
-        <v>5.57530151849059</v>
+        <v>4.434544699302558</v>
       </c>
       <c r="E11">
-        <v>10.92103699651717</v>
+        <v>13.61951777300205</v>
       </c>
       <c r="F11">
-        <v>36.46301176796022</v>
+        <v>49.95720531126685</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>26.19979741469491</v>
+        <v>30.07901976564086</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.06066679499266</v>
+        <v>24.77771927339393</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.09890918209374</v>
+        <v>28.05324194050322</v>
       </c>
       <c r="C12">
-        <v>13.96551694292151</v>
+        <v>26.17836313785357</v>
       </c>
       <c r="D12">
-        <v>5.575197635071389</v>
+        <v>4.445312546164932</v>
       </c>
       <c r="E12">
-        <v>10.96159599427764</v>
+        <v>13.83079963008238</v>
       </c>
       <c r="F12">
-        <v>36.64942479311838</v>
+        <v>50.66815410450285</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>26.27242406880281</v>
+        <v>30.42089682170256</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.14543301364182</v>
+        <v>25.13222236439396</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.06833779413222</v>
+        <v>27.96941630621536</v>
       </c>
       <c r="C13">
-        <v>13.9320675209049</v>
+        <v>26.0973932643591</v>
       </c>
       <c r="D13">
-        <v>5.57521473017797</v>
+        <v>4.442938400565767</v>
       </c>
       <c r="E13">
-        <v>10.95285173363904</v>
+        <v>13.78535713402064</v>
       </c>
       <c r="F13">
-        <v>36.6092869962558</v>
+        <v>50.51517678717274</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>26.25675542708138</v>
+        <v>30.34717487563536</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.12717837611478</v>
+        <v>25.0560353192385</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96833379208794</v>
+        <v>27.69522496158509</v>
       </c>
       <c r="C14">
-        <v>13.82249084809292</v>
+        <v>25.83266992616069</v>
       </c>
       <c r="D14">
-        <v>5.575290595958883</v>
+        <v>4.435405999389982</v>
       </c>
       <c r="E14">
-        <v>10.92436963692558</v>
+        <v>13.63692803404823</v>
       </c>
       <c r="F14">
-        <v>36.47835214910692</v>
+        <v>50.01575918171844</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>26.20576013297143</v>
+        <v>30.10710512560614</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.06764101891049</v>
+        <v>24.80695802894955</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.90684699436941</v>
+        <v>27.52663722361628</v>
       </c>
       <c r="C15">
-        <v>13.75499590023682</v>
+        <v>25.66999935582017</v>
       </c>
       <c r="D15">
-        <v>5.57535249246784</v>
+        <v>4.430950592745467</v>
       </c>
       <c r="E15">
-        <v>10.90695089177018</v>
+        <v>13.5458262362648</v>
       </c>
       <c r="F15">
-        <v>36.39812563306401</v>
+        <v>49.72005140322968</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>26.17460444790144</v>
+        <v>29.96031898361953</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.03117034529861</v>
+        <v>24.65390889494955</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.55103693038727</v>
+        <v>26.55038951209185</v>
       </c>
       <c r="C16">
-        <v>13.36249341152681</v>
+        <v>24.72941935909989</v>
       </c>
       <c r="D16">
-        <v>5.575942394237688</v>
+        <v>4.407722473013469</v>
       </c>
       <c r="E16">
-        <v>10.80757490680978</v>
+        <v>13.03344605269895</v>
       </c>
       <c r="F16">
-        <v>35.93812437175385</v>
+        <v>48.06610252524184</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>25.9973303909397</v>
+        <v>29.12287692450452</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.8221999299392</v>
+        <v>23.76907401179657</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.32978350985083</v>
+        <v>25.94206845856091</v>
       </c>
       <c r="C17">
-        <v>13.11666140962255</v>
+        <v>24.14450238533559</v>
       </c>
       <c r="D17">
-        <v>5.576512785499124</v>
+        <v>4.395400514988315</v>
       </c>
       <c r="E17">
-        <v>10.74703351810176</v>
+        <v>12.75808534147533</v>
       </c>
       <c r="F17">
-        <v>35.65584356837429</v>
+        <v>47.04808650855425</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>25.8897454793324</v>
+        <v>28.61216417255892</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.69409895210831</v>
+        <v>23.21892861716067</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.20147533831041</v>
+        <v>25.58857343877542</v>
       </c>
       <c r="C18">
-        <v>12.97343566591451</v>
+        <v>23.80501145052294</v>
       </c>
       <c r="D18">
-        <v>5.576916939895494</v>
+        <v>4.388973395254025</v>
       </c>
       <c r="E18">
-        <v>10.7123775112572</v>
+        <v>12.5995991310137</v>
       </c>
       <c r="F18">
-        <v>35.49350939650619</v>
+        <v>46.4611167350773</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>25.82830875601736</v>
+        <v>28.31942646938794</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.62048205523944</v>
+        <v>22.89965993310324</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.15785663744838</v>
+        <v>25.46825426558623</v>
       </c>
       <c r="C19">
-        <v>12.92463011156066</v>
+        <v>23.68952551984797</v>
       </c>
       <c r="D19">
-        <v>5.577066794535977</v>
+        <v>4.386906301743059</v>
       </c>
       <c r="E19">
-        <v>10.70067305321825</v>
+        <v>12.54591469587799</v>
       </c>
       <c r="F19">
-        <v>35.43855586873926</v>
+        <v>46.26211650259089</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>25.80758481858038</v>
+        <v>28.22047564273496</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.59557023982363</v>
+        <v>22.79106020430389</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3534459245305</v>
+        <v>26.00719529959854</v>
       </c>
       <c r="C20">
-        <v>13.14302058600214</v>
+        <v>24.20708129261307</v>
       </c>
       <c r="D20">
-        <v>5.576444180007798</v>
+        <v>4.396642835979366</v>
       </c>
       <c r="E20">
-        <v>10.75346132932984</v>
+        <v>12.78740757299217</v>
       </c>
       <c r="F20">
-        <v>35.6858914301018</v>
+        <v>47.15660048424319</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>25.90115252174455</v>
+        <v>28.66642371433548</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.7077296014013</v>
+        <v>23.27778325335406</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.99775584501314</v>
+        <v>27.7758935779676</v>
       </c>
       <c r="C21">
-        <v>13.8547546556181</v>
+        <v>25.91053290792614</v>
       </c>
       <c r="D21">
-        <v>5.575265094483712</v>
+        <v>4.437585130498965</v>
       </c>
       <c r="E21">
-        <v>10.93272987549725</v>
+        <v>13.68056306238643</v>
       </c>
       <c r="F21">
-        <v>36.51681643518493</v>
+        <v>50.16253628370519</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>26.22072201295228</v>
+        <v>30.17756372173491</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.08512921973639</v>
+        <v>24.8802175863186</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.40860581160187</v>
+        <v>28.90291148065313</v>
       </c>
       <c r="C22">
-        <v>14.30314344750959</v>
+        <v>27.00013065985628</v>
       </c>
       <c r="D22">
-        <v>5.575183488530898</v>
+        <v>4.471300033396894</v>
       </c>
       <c r="E22">
-        <v>11.05114521370681</v>
+        <v>14.29314484167854</v>
       </c>
       <c r="F22">
-        <v>37.05890226934671</v>
+        <v>52.22645302647963</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>26.43321700941589</v>
+        <v>31.17667818782202</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.33175323279506</v>
+        <v>25.90551764716466</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.19030508495133</v>
+        <v>28.30387933880068</v>
       </c>
       <c r="C23">
-        <v>14.06538474865279</v>
+        <v>26.42057122340594</v>
       </c>
       <c r="D23">
-        <v>5.575163448426233</v>
+        <v>4.452612475035567</v>
       </c>
       <c r="E23">
-        <v>10.98784088834989</v>
+        <v>13.96685413153645</v>
       </c>
       <c r="F23">
-        <v>36.76972679851851</v>
+        <v>51.12637344058187</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>26.31948679637942</v>
+        <v>30.64223266022619</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.20015602917018</v>
+        <v>25.36013090452026</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.34275158330505</v>
+        <v>25.97776320924349</v>
       </c>
       <c r="C24">
-        <v>13.13110949498592</v>
+        <v>24.17879941776801</v>
       </c>
       <c r="D24">
-        <v>5.576474959242767</v>
+        <v>4.396079147832881</v>
       </c>
       <c r="E24">
-        <v>10.75055484604017</v>
+        <v>12.77415156096627</v>
       </c>
       <c r="F24">
-        <v>35.67230692520226</v>
+        <v>47.10754665292551</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>25.89599410097901</v>
+        <v>28.64189026535689</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.70156708455365</v>
+        <v>23.25118439731013</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.38913099362209</v>
+        <v>23.32954617598068</v>
       </c>
       <c r="C25">
-        <v>12.05383093295343</v>
+        <v>21.64217108824349</v>
       </c>
       <c r="D25">
-        <v>5.580791205327251</v>
+        <v>4.359879872468402</v>
       </c>
       <c r="E25">
-        <v>10.50107128639376</v>
+        <v>11.61453263523829</v>
       </c>
       <c r="F25">
-        <v>34.49033375985833</v>
+        <v>42.795103563598</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>25.45630182426911</v>
+        <v>26.52244502635306</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.16655825787232</v>
+        <v>20.86646043311243</v>
       </c>
       <c r="N25">
         <v>0</v>
